--- a/biology/Virologie/Coronaviridae/Coronaviridae.xlsx
+++ b/biology/Virologie/Coronaviridae/Coronaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coronaviridées, Coronavirus
-Les Coronaviridées (Coronaviridae), ou coronavirus[2],[3], sont une famille de virus à ARN simple brin enveloppés, de sens positif.
-Le génome viral mesure de 26 à 32 kb. Les particules, quasi sphériques, sont généralement décorées de grandes projections de surface (~ 20nm), en forme de massue ou de pétale (les péplomères ou spikes en anglais), qui créent une image qui rappelle la couronne solaire en micrographie électronique : cette propriété est à l'origine du nom des virus de cette famille[4].
+Les Coronaviridées (Coronaviridae), ou coronavirus sont une famille de virus à ARN simple brin enveloppés, de sens positif.
+Le génome viral mesure de 26 à 32 kb. Les particules, quasi sphériques, sont généralement décorées de grandes projections de surface (~ 20nm), en forme de massue ou de pétale (les péplomères ou spikes en anglais), qui créent une image qui rappelle la couronne solaire en micrographie électronique : cette propriété est à l'origine du nom des virus de cette famille.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les extrémités 5' et 3' du génome ont une coiffe et une « queue » poly(A), respectivement. L'enveloppe virale, obtenue par bourgeonnement à travers les membranes du réticulum endoplasmique (RE) et / ou de l'appareil de Golgi, contient invariablement deux espèces de (glyco)protéines codées par le virus, S et M. La glycoprotéine S comprend les grandes projections de surface, tandis que la protéine M est une protéine transmembranaire.
-Les torovirus (anciennement classés dans cette famille[5]) et un sous-ensemble de coronavirus (en particulier les membres du sous-groupe A du genre Betacoronavirus) possèdent, en plus des peplomères composés de S, un deuxième type de projections de surface composé de la protéine hémagglutinine-estérase.
+Les torovirus (anciennement classés dans cette famille) et un sous-ensemble de coronavirus (en particulier les membres du sous-groupe A du genre Betacoronavirus) possèdent, en plus des peplomères composés de S, un deuxième type de projections de surface composé de la protéine hémagglutinine-estérase.
 Une autre protéine structurelle importante est la phosphoprotéine N, qui est responsable de la symétrie hélicoïdale de la nucléocapside qui renferme l'ARN génomique.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille Coronaviridae est organisée en 3 sous-familles, 6 genres, 27 sous-genres et une quarantaine d'espèces[6]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La famille Coronaviridae est organisée en 3 sous-familles, 6 genres, 27 sous-genres et une quarantaine d'espèces:
 Famille Coronaviridae
 Sous-famille Letovirinae
 Genre Alphaletovirus
@@ -618,8 +634,8 @@
 Rousettus bat coronavirus HKU9
 Sous-genre Sarbecovirus
 Severe acute respiratory syndrome-related coronavirus (SARSr-CoV)
-SARSr-CoV HKU3 (chauve-souris)[7]
-SARSr-CoV Rp3 (chauve-souris)[8]
+SARSr-CoV HKU3 (chauve-souris)
+SARSr-CoV Rp3 (chauve-souris)
 SARSr-CoV WIV1 (chauve-souris)
 SARSr-CoV RsSHC014 (chauve-souris)
 SARS-CoV-1 (humain ; SRAS)
@@ -675,9 +691,11 @@
           <t>Épidémiologie et pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coronavirus sont transmis par voie fécale-orale ou par aérosols de sécrétions respiratoires. Ils sont présents dans le monde entier et infectent une large diversité de mammifères et d'oiseaux (orthocoronavirus), mais aussi des amphibiens (letovirus) et des poissons (pironavirus)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coronavirus sont transmis par voie fécale-orale ou par aérosols de sécrétions respiratoires. Ils sont présents dans le monde entier et infectent une large diversité de mammifères et d'oiseaux (orthocoronavirus), mais aussi des amphibiens (letovirus) et des poissons (pironavirus).
 Bien que la plupart des maladies soient bénignes chez l'homme, elles peuvent parfois provoquer des situations plus graves, notamment des infections des voies respiratoires : syndrome respiratoire aigu sévère (SRAS), syndrome respiratoire du Moyen-Orient (MERS) et maladie à coronavirus 2019 (Covid-19). Ils peuvent également provoquer des infections entériques chez les très jeunes enfants et, dans de rares situations, des syndromes neurologiques.
 </t>
         </is>
